--- a/testdata/testdata-error-002.xlsx
+++ b/testdata/testdata-error-002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoyag/git/change-design/prd-dev-04/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6B087-922F-D148-8DCC-26D11922A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F13CF9-8FA1-4D4B-A336-32E65C90D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="700" windowWidth="34260" windowHeight="10140" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
+    <workbookView xWindow="200" yWindow="14500" windowWidth="29680" windowHeight="13600" xr2:uid="{98BA220D-8F62-F24D-A475-F402DF59415A}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧定義" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>アプリID</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,13 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み条件</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シボリコミジョウケｎ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -204,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -251,13 +258,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +312,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60B8C52-99DF-E34E-B669-D984BE64E6C2}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -682,77 +714,116 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:H5" si="0">C3</f>
+      <c r="C6" s="6" t="str">
+        <f t="shared" ref="C6:H6" si="0">C3</f>
         <v>社員氏名</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>所属部門</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>就業状況</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>更新日時</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>更新者</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
